--- a/biology/Botanique/Ernest_Boursier-Mougenot/Ernest_Boursier-Mougenot.xlsx
+++ b/biology/Botanique/Ernest_Boursier-Mougenot/Ernest_Boursier-Mougenot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Boursier-Mougenot dit Ernest Boursier-Mougenot (Nancy, 20 juin 1933 - Nanterre, 20 novembre 2013), fils du peintre André Boursier-Mougenot, et père, entre autres, de Céleste Boursier-Mougenot, est d'abord plasticien puis historien de l'art des jardins. Il est aussi poète et créateur de jardins.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a passé une enfance proche de la nature dans l’est et le midi de la France. Après avoir suivi les cours de l’École nationale des métiers d’art à Paris, il fugue en Lorraine où il est berger avant de pratiquer les arts plastiques.
 Pendant trente ans, du vitrail à de grandes sculptures qui sont autant de lieux à traverser, en passant par des bas-reliefs hétéroclites, il explore les ressources que lui offrent matériaux traditionnels (terre cuite, vitrail, émaux) tout autant que matériaux industriels (béton, brique) détournés de leur fonction première. 
@@ -548,7 +562,9 @@
           <t>Arts plastiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vitraux
 Entre 1955 et 1957, Ernest Boursier-Mougenot crée les vitraux de l'église Notre-Dame des Chênes à Grasse et produira, outre une soixantaine d'œuvres dans des maisons particulières, des créations en vitrail jusqu'en 1978 pour l'Hôtel des Postes à Bormes-les-Mimosas. Une dizaine de lieux de culte présente ses œuvres, en particulier à l'église d'Endoume à Marseille (1971) et l'église d'Aspremont dans les Alpes-Maritimes (1978).
@@ -559,7 +575,7 @@
 Arts plastiques
 Sculptures-lieux, claustras (en béton et verre gravé pour l'Office de tourisme d'Aix-en-Provence, pour qui il a aussi créé une fontaine murale en pierre en 1971), remarquable sculpture-bain de soleil en béton et mosaïque de grès pour la piscine municipale de Peymeinade... À partir de 1965, Ernest Boursier-Mougenot associe matériaux traditionnels (terre cuite, vitrail, émaux) et matériaux industriels (béton, brique) pour des bas-reliefs hétéroclites, des sculptures à traverser et à s'approprier. Il a produit plus d'une douzaine d'œuvres comme le mur d'entrée en béton et miroir de la Maison de la Culture de Vitrolles en 1966.
 Il a parfois collaboré avec Anna-Maria Terracini, comme pour la fontaine en béton et pâte de verre de la place Saint-Roch à Peymeinade, ainsi que pour la mosaïque de pâte de verre du mur d'entrée du Groupe scolaire Antoine de Saint-Exupéry de Grasse.
-Une exposition-rétrospective sur son travail de plasticien est proposée par la Maison du Patrimoine de Grasse, de septembre 2015 à mai 2016 : Ernest Boursier Mougenot : Entre ombre et lumière. L'exposition se base essentiellement sur les nombreuses photographies d'Alain Sabatier. Une impasse, à Grasse, a d'ailleurs pris son nom en 2018[1].
+Une exposition-rétrospective sur son travail de plasticien est proposée par la Maison du Patrimoine de Grasse, de septembre 2015 à mai 2016 : Ernest Boursier Mougenot : Entre ombre et lumière. L'exposition se base essentiellement sur les nombreuses photographies d'Alain Sabatier. Une impasse, à Grasse, a d'ailleurs pris son nom en 2018.
 </t>
         </is>
       </c>
